--- a/FilmFinder/FilmFinder/bin/Release/Subject 2.xlsx
+++ b/FilmFinder/FilmFinder/bin/Release/Subject 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="10">
   <si>
     <t>Actor</t>
   </si>
@@ -23,6 +23,27 @@
   </si>
   <si>
     <t>Director</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>multi</t>
+  </si>
+  <si>
+    <t>trackbar</t>
+  </si>
+  <si>
+    <t>histo</t>
+  </si>
+  <si>
+    <t>list1</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>mousewh</t>
   </si>
 </sst>
 </file>
@@ -507,7 +528,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
@@ -562,6 +584,523 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Subject 2'!$H$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>alpha</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>multi</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>trackbar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>histo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>list1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>active</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>mousewh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Subject 2'!$H$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>23148.777777777777</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37986.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20282.888888888891</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42963.111111111109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31915.777777777777</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31563.555555555555</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36976.666666666664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="43233280"/>
+        <c:axId val="43234816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="43233280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43234816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="43234816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43233280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Subject 2'!$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Subject 2'!$I$7:$I$13</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>alpha</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>multi</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>trackbar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>histo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>list1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>active</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>mousewh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Subject 2'!$J$7:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>31899.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26580.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27614</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76711</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41551.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57462.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64906.666666666664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Subject 2'!$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actress</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Subject 2'!$I$7:$I$13</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>alpha</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>multi</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>trackbar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>histo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>list1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>active</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>mousewh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Subject 2'!$K$7:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>24750</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45486.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18303.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37549</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12805</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Subject 2'!$L$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Director</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Subject 2'!$I$7:$I$13</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>alpha</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>multi</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>trackbar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>histo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>list1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>active</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>mousewh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Subject 2'!$L$7:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12796.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41892.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15116.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16647</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24423</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20037.333333333332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="45665664"/>
+        <c:axId val="45667456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="45665664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45667456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="45667456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45665664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -851,13 +1390,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:L13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -876,8 +1417,29 @@
       <c r="F1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -896,8 +1458,36 @@
       <c r="F2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <f>AVERAGE(E1:E9)</f>
+        <v>23148.777777777777</v>
+      </c>
+      <c r="I2">
+        <f>AVERAGE(E10:E18)</f>
+        <v>37986.333333333336</v>
+      </c>
+      <c r="J2">
+        <f>AVERAGE(E19:E27)</f>
+        <v>20282.888888888891</v>
+      </c>
+      <c r="K2">
+        <f>AVERAGE(E28:E36)</f>
+        <v>42963.111111111109</v>
+      </c>
+      <c r="L2">
+        <f>AVERAGE(E37:E45)</f>
+        <v>31915.777777777777</v>
+      </c>
+      <c r="M2">
+        <f>AVERAGE(E46:E54)</f>
+        <v>31563.555555555555</v>
+      </c>
+      <c r="N2">
+        <f>AVERAGE(E55:E63)</f>
+        <v>36976.666666666664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -917,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -937,7 +1527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -957,7 +1547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -976,8 +1566,18 @@
       <c r="F6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -996,8 +1596,23 @@
       <c r="F7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1">
+        <f>AVERAGE(E1:E3)</f>
+        <v>31899.666666666668</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(E4:E6)</f>
+        <v>24750</v>
+      </c>
+      <c r="L7" s="1">
+        <f>AVERAGE(E7:E9)</f>
+        <v>12796.666666666666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1016,8 +1631,23 @@
       <c r="F8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <f>AVERAGE(E10:E12)</f>
+        <v>26580.333333333332</v>
+      </c>
+      <c r="K8" s="1">
+        <f>AVERAGE(E13:E15)</f>
+        <v>45486.333333333336</v>
+      </c>
+      <c r="L8" s="1">
+        <f>AVERAGE(E16:E18)</f>
+        <v>41892.333333333336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1036,8 +1666,23 @@
       <c r="F9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <f>AVERAGE(E19:E21)</f>
+        <v>27614</v>
+      </c>
+      <c r="K9" s="1">
+        <f>AVERAGE(E22:E24)</f>
+        <v>18118</v>
+      </c>
+      <c r="L9" s="1">
+        <f>AVERAGE(E25:E27)</f>
+        <v>15116.666666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1056,8 +1701,23 @@
       <c r="F10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="1">
+        <f>AVERAGE(E28:E30)</f>
+        <v>76711</v>
+      </c>
+      <c r="K10" s="1">
+        <f>AVERAGE(E31:E33)</f>
+        <v>18303.333333333332</v>
+      </c>
+      <c r="L10" s="1">
+        <f>AVERAGE(E34:E36)</f>
+        <v>33875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1076,8 +1736,23 @@
       <c r="F11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="1">
+        <f>AVERAGE(E37:E39)</f>
+        <v>41551.333333333336</v>
+      </c>
+      <c r="K11" s="1">
+        <f>AVERAGE(E40:E42)</f>
+        <v>37549</v>
+      </c>
+      <c r="L11" s="1">
+        <f>AVERAGE(E43:E45)</f>
+        <v>16647</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1096,8 +1771,23 @@
       <c r="F12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="1">
+        <f>AVERAGE(E46:E48)</f>
+        <v>57462.666666666664</v>
+      </c>
+      <c r="K12" s="1">
+        <f>AVERAGE(E49:E51)</f>
+        <v>12805</v>
+      </c>
+      <c r="L12" s="1">
+        <f>AVERAGE(E52:E54)</f>
+        <v>24423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1116,8 +1806,23 @@
       <c r="F13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="1">
+        <f>AVERAGE(E55:E57)</f>
+        <v>64906.666666666664</v>
+      </c>
+      <c r="K13" s="1">
+        <f>AVERAGE(E58:E60)</f>
+        <v>25986</v>
+      </c>
+      <c r="L13" s="1">
+        <f>AVERAGE(E61:E63)</f>
+        <v>20037.333333333332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1137,7 +1842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1157,7 +1862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2119,5 +2824,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/FilmFinder/FilmFinder/bin/Release/Subject 2.xlsx
+++ b/FilmFinder/FilmFinder/bin/Release/Subject 2.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Subject 2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="13">
   <si>
     <t>Actor</t>
   </si>
@@ -37,13 +37,22 @@
     <t>histo</t>
   </si>
   <si>
-    <t>list1</t>
-  </si>
-  <si>
     <t>active</t>
   </si>
   <si>
-    <t>mousewh</t>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>mousewheel</t>
   </si>
 </sst>
 </file>
@@ -617,25 +626,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>trackbar</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>alpha</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>multi</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>trackbar</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>histo</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>list1</c:v>
+                  <c:v>active</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>active</c:v>
+                  <c:v>mousewheel</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>mousewh</c:v>
+                  <c:v>list</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -647,25 +656,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>20282.888888888891</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>23148.777777777777</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>37986.333333333336</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20282.888888888891</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>42963.111111111109</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>31563.555555555555</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36976.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>31915.777777777777</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>31563.555555555555</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>36976.666666666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -680,20 +689,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="43233280"/>
-        <c:axId val="43234816"/>
+        <c:axId val="56571776"/>
+        <c:axId val="56573312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="43233280"/>
+        <c:axId val="56571776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43234816"/>
+        <c:crossAx val="56573312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -701,7 +711,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43234816"/>
+        <c:axId val="56573312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -712,7 +722,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43233280"/>
+        <c:crossAx val="56571776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -755,7 +765,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Subject 2'!$J$6</c:f>
+              <c:f>'Subject 2'!$J$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -767,59 +777,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Subject 2'!$I$7:$I$13</c:f>
+              <c:f>'Subject 2'!$I$20:$I$26</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>trackbar</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>alpha</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>multi</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>trackbar</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>histo</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>list1</c:v>
+                  <c:v>active</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>active</c:v>
+                  <c:v>mousewheel</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>mousewh</c:v>
+                  <c:v>list</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Subject 2'!$J$7:$J$13</c:f>
+              <c:f>'Subject 2'!$J$20:$J$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>27614</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>31899.666666666668</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>26580.333333333332</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27614</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>76711</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>57462.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64906.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>41551.333333333336</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>57462.666666666664</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64906.666666666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -830,7 +840,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Subject 2'!$K$6</c:f>
+              <c:f>'Subject 2'!$K$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -842,59 +852,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Subject 2'!$I$7:$I$13</c:f>
+              <c:f>'Subject 2'!$I$20:$I$26</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>trackbar</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>alpha</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>multi</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>trackbar</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>histo</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>list1</c:v>
+                  <c:v>active</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>active</c:v>
+                  <c:v>mousewheel</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>mousewh</c:v>
+                  <c:v>list</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Subject 2'!$K$7:$K$13</c:f>
+              <c:f>'Subject 2'!$K$20:$K$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>18118</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>24750</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>45486.333333333336</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18118</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>18303.333333333332</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>12805</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25986</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>37549</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12805</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -905,7 +915,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Subject 2'!$L$6</c:f>
+              <c:f>'Subject 2'!$L$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -917,59 +927,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Subject 2'!$I$7:$I$13</c:f>
+              <c:f>'Subject 2'!$I$20:$I$26</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>trackbar</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>alpha</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>multi</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>trackbar</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>histo</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>list1</c:v>
+                  <c:v>active</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>active</c:v>
+                  <c:v>mousewheel</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>mousewh</c:v>
+                  <c:v>list</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Subject 2'!$L$7:$L$13</c:f>
+              <c:f>'Subject 2'!$L$20:$L$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>15116.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>12796.666666666666</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>41892.333333333336</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15116.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>33875</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>24423</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20037.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>16647</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24423</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20037.333333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -984,11 +994,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="45665664"/>
-        <c:axId val="45667456"/>
+        <c:axId val="56594816"/>
+        <c:axId val="56596352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45665664"/>
+        <c:axId val="56594816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -997,7 +1007,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45667456"/>
+        <c:crossAx val="56596352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1005,7 +1015,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45667456"/>
+        <c:axId val="56596352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1016,7 +1026,316 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45665664"/>
+        <c:crossAx val="56594816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Subject 2'!$I$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Subject 2'!$J$35:$P$35</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>trackbar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>alpha</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>multi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>histo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>active</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mousewheel</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>list</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Subject 2'!$J$36:$P$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>16414</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20698.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45289.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50812</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31902.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39119.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31117</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Subject 2'!$I$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Medium</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Subject 2'!$J$35:$P$35</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>trackbar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>alpha</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>multi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>histo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>active</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mousewheel</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>list</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Subject 2'!$J$37:$P$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>19366</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20231.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29876.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Subject 2'!$I$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>High</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Subject 2'!$J$35:$P$35</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>trackbar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>alpha</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>multi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>histo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>active</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mousewheel</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>list</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Subject 2'!$J$38:$P$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>25068.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28516.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33548.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27469.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32911.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36084.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28654.333333333332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="56935552"/>
+        <c:axId val="56937088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="56935552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="56937088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="56937088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="56935552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1043,15 +1362,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1072,16 +1391,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1095,6 +1414,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1390,20 +1739,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:L13"/>
+      <selection activeCell="D20" sqref="A1:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1412,19 +1761,19 @@
         <v>0</v>
       </c>
       <c r="E1">
-        <v>30312</v>
+        <v>30206</v>
       </c>
       <c r="F1" t="b">
         <v>1</v>
       </c>
       <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
@@ -1433,18 +1782,18 @@
         <v>7</v>
       </c>
       <c r="M1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -1453,22 +1802,22 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>23066</v>
+        <v>18022</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="H2">
         <f>AVERAGE(E1:E9)</f>
-        <v>23148.777777777777</v>
+        <v>20282.888888888891</v>
       </c>
       <c r="I2">
         <f>AVERAGE(E10:E18)</f>
-        <v>37986.333333333336</v>
+        <v>23148.777777777777</v>
       </c>
       <c r="J2">
         <f>AVERAGE(E19:E27)</f>
-        <v>20282.888888888891</v>
+        <v>37986.333333333336</v>
       </c>
       <c r="K2">
         <f>AVERAGE(E28:E36)</f>
@@ -1476,23 +1825,23 @@
       </c>
       <c r="L2">
         <f>AVERAGE(E37:E45)</f>
-        <v>31915.777777777777</v>
+        <v>31563.555555555555</v>
       </c>
       <c r="M2">
         <f>AVERAGE(E46:E54)</f>
-        <v>31563.555555555555</v>
+        <v>36976.666666666664</v>
       </c>
       <c r="N2">
         <f>AVERAGE(E55:E63)</f>
-        <v>36976.666666666664</v>
+        <v>31915.777777777777</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -1501,7 +1850,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>42321</v>
+        <v>34614</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -1509,10 +1858,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -1521,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>19109</v>
+        <v>11518</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -1529,10 +1878,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -1541,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>28299</v>
+        <v>30550</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -1549,10 +1898,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -1561,28 +1910,18 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>26842</v>
+        <v>12286</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -1591,33 +1930,18 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12674</v>
+        <v>7518</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="1">
-        <f>AVERAGE(E1:E3)</f>
-        <v>31899.666666666668</v>
-      </c>
-      <c r="K7" s="1">
-        <f>AVERAGE(E4:E6)</f>
-        <v>24750</v>
-      </c>
-      <c r="L7" s="1">
-        <f>AVERAGE(E7:E9)</f>
-        <v>12796.666666666666</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -1626,33 +1950,18 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>9330</v>
+        <v>9526</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8">
-        <f>AVERAGE(E10:E12)</f>
-        <v>26580.333333333332</v>
-      </c>
-      <c r="K8" s="1">
-        <f>AVERAGE(E13:E15)</f>
-        <v>45486.333333333336</v>
-      </c>
-      <c r="L8" s="1">
-        <f>AVERAGE(E16:E18)</f>
-        <v>41892.333333333336</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -1661,448 +1970,488 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>16386</v>
+        <v>28306</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9">
-        <f>AVERAGE(E19:E21)</f>
-        <v>27614</v>
-      </c>
-      <c r="K9" s="1">
-        <f>AVERAGE(E22:E24)</f>
-        <v>18118</v>
-      </c>
-      <c r="L9" s="1">
-        <f>AVERAGE(E25:E27)</f>
-        <v>15116.666666666666</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>30312</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>23066</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>42321</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>19109</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>28299</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>26842</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>12674</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>9330</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>16386</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <v>20047</v>
       </c>
-      <c r="F10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>25286</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="1">
+        <f>AVERAGE(E1:E3)</f>
+        <v>27614</v>
+      </c>
+      <c r="K20" s="1">
+        <f>AVERAGE(E4:E6)</f>
+        <v>18118</v>
+      </c>
+      <c r="L20" s="1">
+        <f>AVERAGE(E7:E9)</f>
+        <v>15116.666666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>34408</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <f>AVERAGE(E10:E12)</f>
+        <v>31899.666666666668</v>
+      </c>
+      <c r="K21" s="1">
+        <f>AVERAGE(E13:E15)</f>
+        <v>24750</v>
+      </c>
+      <c r="L21" s="1">
+        <f>AVERAGE(E16:E18)</f>
+        <v>12796.666666666666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>22855</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <f>AVERAGE(E19:E21)</f>
+        <v>26580.333333333332</v>
+      </c>
+      <c r="K22" s="1">
+        <f>AVERAGE(E22:E24)</f>
+        <v>45486.333333333336</v>
+      </c>
+      <c r="L22" s="1">
+        <f>AVERAGE(E25:E27)</f>
+        <v>41892.333333333336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>62750</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J23" s="1">
         <f>AVERAGE(E28:E30)</f>
         <v>76711</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K23" s="1">
         <f>AVERAGE(E31:E33)</f>
         <v>18303.333333333332</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L23" s="1">
         <f>AVERAGE(E34:E36)</f>
         <v>33875</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>25286</v>
-      </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>50854</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J24" s="1">
         <f>AVERAGE(E37:E39)</f>
+        <v>57462.666666666664</v>
+      </c>
+      <c r="K24" s="1">
+        <f>AVERAGE(E40:E42)</f>
+        <v>12805</v>
+      </c>
+      <c r="L24" s="1">
+        <f>AVERAGE(E43:E45)</f>
+        <v>24423</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>92967</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="1">
+        <f>AVERAGE(E46:E48)</f>
+        <v>64906.666666666664</v>
+      </c>
+      <c r="K25" s="1">
+        <f>AVERAGE(E49:E51)</f>
+        <v>25986</v>
+      </c>
+      <c r="L25" s="1">
+        <f>AVERAGE(E52:E54)</f>
+        <v>20037.333333333332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>17327</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="1">
+        <f>AVERAGE(E55:E57)</f>
         <v>41551.333333333336</v>
       </c>
-      <c r="K11" s="1">
-        <f>AVERAGE(E40:E42)</f>
+      <c r="K26" s="1">
+        <f>AVERAGE(E58:E60)</f>
         <v>37549</v>
       </c>
-      <c r="L11" s="1">
-        <f>AVERAGE(E43:E45)</f>
+      <c r="L26" s="1">
+        <f>AVERAGE(E61:E63)</f>
         <v>16647</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>34408</v>
-      </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="1">
-        <f>AVERAGE(E46:E48)</f>
-        <v>57462.666666666664</v>
-      </c>
-      <c r="K12" s="1">
-        <f>AVERAGE(E49:E51)</f>
-        <v>12805</v>
-      </c>
-      <c r="L12" s="1">
-        <f>AVERAGE(E52:E54)</f>
-        <v>24423</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>22855</v>
-      </c>
-      <c r="F13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" s="1">
-        <f>AVERAGE(E55:E57)</f>
-        <v>64906.666666666664</v>
-      </c>
-      <c r="K13" s="1">
-        <f>AVERAGE(E58:E60)</f>
-        <v>25986</v>
-      </c>
-      <c r="L13" s="1">
-        <f>AVERAGE(E61:E63)</f>
-        <v>20037.333333333332</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>62750</v>
-      </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>50854</v>
-      </c>
-      <c r="F15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>92967</v>
-      </c>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>17327</v>
-      </c>
-      <c r="F17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
         <v>15383</v>
       </c>
-      <c r="F18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>30206</v>
-      </c>
-      <c r="F19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>18022</v>
-      </c>
-      <c r="F20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>34614</v>
-      </c>
-      <c r="F21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>11518</v>
-      </c>
-      <c r="F22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>30550</v>
-      </c>
-      <c r="F23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>12286</v>
-      </c>
-      <c r="F24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>7518</v>
-      </c>
-      <c r="F25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>9526</v>
-      </c>
-      <c r="F26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>28306</v>
-      </c>
       <c r="F27" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2122,7 +2471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2142,7 +2491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2162,7 +2511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2182,7 +2531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2202,7 +2551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2221,8 +2570,9 @@
       <c r="F33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2241,8 +2591,12 @@
       <c r="F34" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2261,8 +2615,30 @@
       <c r="F35" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I35" s="1"/>
+      <c r="J35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2281,13 +2657,44 @@
       <c r="F36" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" s="1">
+        <f>AVERAGE(E1,E4,E7)</f>
+        <v>16414</v>
+      </c>
+      <c r="K36" s="1">
+        <f>AVERAGE(E10,E13,E16)</f>
+        <v>20698.333333333332</v>
+      </c>
+      <c r="L36" s="1">
+        <f>AVERAGE(E19,E22,E25)</f>
+        <v>45289.666666666664</v>
+      </c>
+      <c r="M36" s="1">
+        <f>AVERAGE(E28,E31,E34)</f>
+        <v>50812</v>
+      </c>
+      <c r="N36" s="1">
+        <f>AVERAGE(E37,E40,E43)</f>
+        <v>31902.333333333332</v>
+      </c>
+      <c r="O36" s="1">
+        <f>AVERAGE(E46,E49,E52)</f>
+        <v>39119.666666666664</v>
+      </c>
+      <c r="P36" s="1">
+        <f>AVERAGE(E55,E58,E61)</f>
+        <v>31117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B37">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
         <v>0</v>
@@ -2296,18 +2703,49 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>33371</v>
+        <v>44238</v>
       </c>
       <c r="F37" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" ref="J37:J38" si="0">AVERAGE(E2,E5,E8)</f>
+        <v>19366</v>
+      </c>
+      <c r="K37" s="1">
+        <f>AVERAGE(E11,E14,E17)</f>
+        <v>20231.666666666668</v>
+      </c>
+      <c r="L37" s="1">
+        <f>AVERAGE(E20,E23,E26)</f>
+        <v>35121</v>
+      </c>
+      <c r="M37" s="1">
+        <f>AVERAGE(E29,E32,E35)</f>
+        <v>50608</v>
+      </c>
+      <c r="N37" s="1">
+        <f>AVERAGE(E38,E41,E44)</f>
+        <v>29876.666666666668</v>
+      </c>
+      <c r="O37" s="1">
+        <f>AVERAGE(E47,E50,E53)</f>
+        <v>35726</v>
+      </c>
+      <c r="P37" s="1">
+        <f>AVERAGE(E56,E59,E62)</f>
+        <v>35976</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
         <v>0</v>
@@ -2316,18 +2754,49 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>57807</v>
+        <v>61647</v>
       </c>
       <c r="F38" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" si="0"/>
+        <v>25068.666666666668</v>
+      </c>
+      <c r="K38" s="1">
+        <f>AVERAGE(E12,E15,E18)</f>
+        <v>28516.333333333332</v>
+      </c>
+      <c r="L38" s="1">
+        <f>AVERAGE(E21,E24,E27)</f>
+        <v>33548.333333333336</v>
+      </c>
+      <c r="M38" s="1">
+        <f>AVERAGE(E30,E33,E36)</f>
+        <v>27469.333333333332</v>
+      </c>
+      <c r="N38" s="1">
+        <f>AVERAGE(E39,E42,E45)</f>
+        <v>32911.666666666664</v>
+      </c>
+      <c r="O38" s="1">
+        <f>AVERAGE(E48,E51,E54)</f>
+        <v>36084.333333333336</v>
+      </c>
+      <c r="P38" s="1">
+        <f>AVERAGE(E57,E60,E63)</f>
+        <v>28654.333333333332</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
@@ -2336,18 +2805,22 @@
         <v>2</v>
       </c>
       <c r="E39">
-        <v>33476</v>
+        <v>66503</v>
       </c>
       <c r="F39" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
@@ -2356,18 +2829,22 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>38893</v>
+        <v>12975</v>
       </c>
       <c r="F40" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
@@ -2376,18 +2853,22 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>32057</v>
+        <v>9287</v>
       </c>
       <c r="F41" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -2396,18 +2877,22 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>41697</v>
+        <v>16153</v>
       </c>
       <c r="F42" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -2416,18 +2901,18 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>21087</v>
+        <v>38494</v>
       </c>
       <c r="F43" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -2436,18 +2921,18 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>18064</v>
+        <v>18696</v>
       </c>
       <c r="F44" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -2456,18 +2941,18 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>10790</v>
+        <v>16079</v>
       </c>
       <c r="F45" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>0</v>
@@ -2476,18 +2961,18 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>44238</v>
+        <v>93681</v>
       </c>
       <c r="F46" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>0</v>
@@ -2496,18 +2981,18 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>61647</v>
+        <v>30294</v>
       </c>
       <c r="F47" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>0</v>
@@ -2516,7 +3001,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>66503</v>
+        <v>70745</v>
       </c>
       <c r="F48" t="b">
         <v>1</v>
@@ -2524,10 +3009,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
@@ -2536,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>12975</v>
+        <v>10494</v>
       </c>
       <c r="F49" t="b">
         <v>1</v>
@@ -2544,10 +3029,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
@@ -2556,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>9287</v>
+        <v>38685</v>
       </c>
       <c r="F50" t="b">
         <v>1</v>
@@ -2564,10 +3049,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
@@ -2576,7 +3061,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>16153</v>
+        <v>28779</v>
       </c>
       <c r="F51" t="b">
         <v>1</v>
@@ -2584,10 +3069,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -2596,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>38494</v>
+        <v>13184</v>
       </c>
       <c r="F52" t="b">
         <v>1</v>
@@ -2604,10 +3089,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -2616,7 +3101,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>18696</v>
+        <v>38199</v>
       </c>
       <c r="F53" t="b">
         <v>1</v>
@@ -2624,10 +3109,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
@@ -2636,7 +3121,7 @@
         <v>2</v>
       </c>
       <c r="E54">
-        <v>16079</v>
+        <v>8729</v>
       </c>
       <c r="F54" t="b">
         <v>1</v>
@@ -2644,10 +3129,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>0</v>
@@ -2656,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>93681</v>
+        <v>33371</v>
       </c>
       <c r="F55" t="b">
         <v>1</v>
@@ -2664,10 +3149,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>0</v>
@@ -2676,7 +3161,7 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>30294</v>
+        <v>57807</v>
       </c>
       <c r="F56" t="b">
         <v>1</v>
@@ -2684,10 +3169,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>0</v>
@@ -2696,7 +3181,7 @@
         <v>2</v>
       </c>
       <c r="E57">
-        <v>70745</v>
+        <v>33476</v>
       </c>
       <c r="F57" t="b">
         <v>1</v>
@@ -2704,10 +3189,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
@@ -2716,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>10494</v>
+        <v>38893</v>
       </c>
       <c r="F58" t="b">
         <v>1</v>
@@ -2724,10 +3209,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
@@ -2736,7 +3221,7 @@
         <v>1</v>
       </c>
       <c r="E59">
-        <v>38685</v>
+        <v>32057</v>
       </c>
       <c r="F59" t="b">
         <v>1</v>
@@ -2744,10 +3229,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
@@ -2756,7 +3241,7 @@
         <v>2</v>
       </c>
       <c r="E60">
-        <v>28779</v>
+        <v>41697</v>
       </c>
       <c r="F60" t="b">
         <v>1</v>
@@ -2764,10 +3249,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B61">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>2</v>
@@ -2776,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>13184</v>
+        <v>21087</v>
       </c>
       <c r="F61" t="b">
         <v>1</v>
@@ -2784,10 +3269,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B62">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>2</v>
@@ -2796,7 +3281,7 @@
         <v>1</v>
       </c>
       <c r="E62">
-        <v>38199</v>
+        <v>18064</v>
       </c>
       <c r="F62" t="b">
         <v>1</v>
@@ -2804,10 +3289,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>2</v>
@@ -2816,13 +3301,16 @@
         <v>2</v>
       </c>
       <c r="E63">
-        <v>8729</v>
+        <v>10790</v>
       </c>
       <c r="F63" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:F63">
+    <sortCondition ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
